--- a/mysite/제품.xlsx
+++ b/mysite/제품.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,56 +469,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>가전</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>TV/AV</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>% 기입</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>% 기입</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>금액또는%기입</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>금액또는%기입</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>금액또는%기입</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,12 +484,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>빌트인</t>
+          <t>TV/AV</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>B_조리기기</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -565,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -580,7 +536,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B_식기세척기</t>
+          <t>B_조리기기</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,7 +568,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -622,12 +578,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>에너지솔루션</t>
+          <t>빌트인</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>에너지솔루션</t>
+          <t>B_식기세척기</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -659,7 +615,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,12 +625,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>일반AC</t>
+          <t>에너지솔루션</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RAC</t>
+          <t>에너지솔루션</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -706,7 +662,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -721,7 +677,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FAC</t>
+          <t>RAC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -753,7 +709,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -768,7 +724,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PAC</t>
+          <t>FAC</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -800,7 +756,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -810,12 +766,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>일반AC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>멀티</t>
+          <t>PAC</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -847,7 +803,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -862,7 +818,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>싱글</t>
+          <t>멀티</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -894,7 +850,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -909,7 +865,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>매입</t>
+          <t>싱글</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -941,22 +897,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MON</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MON</t>
+          <t>매입</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -988,22 +944,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TV/AV</t>
+          <t>MON</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AV</t>
+          <t>MON</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1035,22 +991,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PC</t>
+          <t>TV/AV</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DPC</t>
+          <t>AV</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1082,7 +1038,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1097,7 +1053,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NPC</t>
+          <t>DPC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1129,22 +1085,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Signage</t>
+          <t>PC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Signage</t>
+          <t>NPC</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1176,7 +1132,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1191,7 +1147,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Biz TV</t>
+          <t>Signage</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1223,22 +1179,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PRT SET</t>
+          <t>Signage</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LBP</t>
+          <t>Biz TV</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1270,7 +1226,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1285,7 +1241,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DMFP</t>
+          <t>LBP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1317,7 +1273,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1332,7 +1288,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>INK</t>
+          <t>DMFP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1364,7 +1320,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1374,12 +1330,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>소모품</t>
+          <t>PRT SET</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PRT OPT</t>
+          <t>INK</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1411,7 +1367,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1426,7 +1382,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRT SOL</t>
+          <t>PRT OPT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1458,7 +1414,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1473,7 +1429,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRT CON</t>
+          <t>PRT SOL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1505,22 +1461,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>일반가전</t>
+          <t>소모품</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>냉장고</t>
+          <t>PRT CON</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1552,22 +1508,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">모바일 </t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>모바일직접</t>
+          <t>일반가전</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PHONE</t>
+          <t>냉장고</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1599,7 +1555,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1614,7 +1570,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TAB</t>
+          <t>PHONE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1646,7 +1602,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1661,7 +1617,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WEARABLE</t>
+          <t>TAB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1693,7 +1649,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1708,7 +1664,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HHP MD</t>
+          <t>WEARABLE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1740,22 +1696,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t xml:space="preserve">모바일 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>LED조명</t>
+          <t>모바일직접</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LED조명</t>
+          <t>HHP MD</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1787,22 +1743,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>LED조명</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>LED조명</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1834,22 +1790,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>복사용지</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>복사용지</t>
+          <t>SSD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1881,7 +1837,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1891,12 +1847,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>복사용지</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>복사용지</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1928,7 +1884,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1943,7 +1899,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>가전MD</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1975,7 +1931,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1990,7 +1946,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>정보MD</t>
+          <t>가전MD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2022,22 +1978,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>일반가전</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>세탁기</t>
+          <t>정보MD</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2069,7 +2025,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2079,12 +2035,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>하만오디오</t>
+          <t>일반가전</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>하만오디오</t>
+          <t>세탁기</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2116,22 +2072,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Brand Memory</t>
+          <t>하만오디오</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>메모리카드</t>
+          <t>하만오디오</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2163,22 +2119,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>가전</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>빌트인</t>
+          <t>Brand Memory</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>B_에어드레서</t>
+          <t>메모리카드</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2210,7 +2166,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2225,7 +2181,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>B_가전MD</t>
+          <t>B_에어드레서</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2257,22 +2213,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>가전</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>매입솔루션</t>
+          <t>빌트인</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>B_가전MD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2304,59 +2260,69 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>로지텍</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>설치</t>
+          <t>매입솔루션</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>기본설치비(로지텍)</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>% 기입</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>% 기입</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>금액또는%기입</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>금액또는%기입</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>금액또는%기입</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>외부</t>
+          <t>로지텍</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>설치</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>기본설치비(로지텍)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2388,12 +2354,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>진열</t>
+          <t>외부</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2425,12 +2391,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>재고</t>
+          <t>진열</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2462,54 +2428,44 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>가전</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>일반가전</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>에어케어</t>
+          <t>재고</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>% 기입</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>% 기입</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>금액또는%기입</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>금액또는%기입</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>금액또는%기입</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2524,7 +2480,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>청소기</t>
+          <t>에어케어</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2556,7 +2512,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2571,7 +2527,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>전자레인지</t>
+          <t>청소기</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2603,7 +2559,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2613,12 +2569,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>빌트인</t>
+          <t>일반가전</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B_냉장고</t>
+          <t>전자레인지</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2650,7 +2606,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2665,7 +2621,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>B_세탁기</t>
+          <t>B_냉장고</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2697,45 +2653,92 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>가전</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>빌트인</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>B_세탁기</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>% 기입</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>% 기입</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>금액또는%기입</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>금액또는%기입</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>금액또는%기입</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>제품모델명</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>대</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>중</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>소</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>전ㄴ</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>잠</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
